--- a/docs/FMC_eval_board_template.xlsx
+++ b/docs/FMC_eval_board_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adi\hdl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0DFCE-734E-445E-A576-C6E43D9FB5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86B77E-4BFE-407E-9690-D17BDBED4EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,7 +2098,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">9. Run the script by sourcing </t>
+      <t xml:space="preserve">9. Run the script as </t>
     </r>
     <r>
       <rPr>
@@ -2109,7 +2109,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>fmc_constr_generator.tcl</t>
+      <t xml:space="preserve">tclsh /path/to/script {fmc_conn} </t>
     </r>
     <r>
       <rPr>
@@ -2119,7 +2119,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and calling </t>
+      <t xml:space="preserve">(e.g. </t>
     </r>
     <r>
       <rPr>
@@ -2130,7 +2130,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">gen_fmc_constr 
+      <t>tclsh ../../scripts/adi_fmc_constr_generator.tcl fmc0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
          - </t>
     </r>
     <r>
@@ -2164,7 +2185,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">         - if used from an open project, the generated file would be added to the project; otherwise it will appear in the current directory
-         - if the carrier has only one fmc port, </t>
+         - if the carrier has only one fmc port, the script</t>
     </r>
     <r>
       <rPr>
@@ -2175,7 +2196,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">gen_fmc_constr </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2186,28 +2207,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">can be called without parameters
-         - if the carrier has more fmc ports, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gen_fmc_constr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> should be called with:
+         - if the carrier has more fmc ports, the script should be called with:
                          - one parameter indicating the fmc port : fmc_lpc/hpc, fmc0/1, fmcp0/1 (see </t>
     </r>
     <r>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82280CF-0FAD-40EE-ABE5-57D95708CD39}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
